--- a/EEMReportFinal/EEMReport/EEMReport/src/main/resources/templates/Dashboard.xlsx
+++ b/EEMReportFinal/EEMReport/EEMReport/src/main/resources/templates/Dashboard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="141">
   <si>
     <t>SUMMARY</t>
   </si>
@@ -66,15 +66,6 @@
   </si>
   <si>
     <t>01/21/2017-01/27/2017</t>
-  </si>
-  <si>
-    <t>01/28/2017-02/03/2017</t>
-  </si>
-  <si>
-    <t>02/04/2017-02/10/2017</t>
-  </si>
-  <si>
-    <t>02/11/2017-02/17/2017</t>
   </si>
   <si>
     <t>Wed</t>
@@ -1277,7 +1268,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -7336,11 +7327,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="81939039"/>
-        <c:axId val="20475339"/>
+        <c:axId val="97951978"/>
+        <c:axId val="34735665"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81939039"/>
+        <c:axId val="97951978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7357,14 +7348,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20475339"/>
+        <c:crossAx val="34735665"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20475339"/>
+        <c:axId val="34735665"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7388,7 +7379,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81939039"/>
+        <c:crossAx val="97951978"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -7429,15 +7420,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>352080</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7445,8 +7436,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23259600" y="4681440"/>
-        <a:ext cx="9728640" cy="2739960"/>
+        <a:off x="23286600" y="4672440"/>
+        <a:ext cx="9728280" cy="2739600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7467,9 +7458,9 @@
   <dimension ref="A1:ES58"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="EM1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="DM6" activeCellId="0" sqref="DM6"/>
+      <selection pane="topRight" activeCell="DM1" activeCellId="0" sqref="DM1:EX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7807,191 +7798,131 @@
       <c r="DL1" s="3" t="n">
         <v>43132</v>
       </c>
-      <c r="DM1" s="3" t="n">
-        <v>43133</v>
-      </c>
-      <c r="DN1" s="3" t="n">
-        <v>43134</v>
-      </c>
-      <c r="DO1" s="3" t="n">
-        <v>43135</v>
-      </c>
-      <c r="DP1" s="3" t="n">
-        <v>43136</v>
-      </c>
-      <c r="DQ1" s="3" t="n">
-        <v>43137</v>
-      </c>
-      <c r="DR1" s="3" t="n">
-        <v>43138</v>
-      </c>
-      <c r="DS1" s="3" t="n">
-        <v>43139</v>
-      </c>
-      <c r="DT1" s="3" t="n">
-        <v>43140</v>
-      </c>
-      <c r="DU1" s="3" t="n">
-        <v>43141</v>
-      </c>
-      <c r="DV1" s="3" t="n">
-        <v>43142</v>
-      </c>
-      <c r="DW1" s="3" t="n">
-        <v>43143</v>
-      </c>
-      <c r="DX1" s="3" t="n">
-        <v>43144</v>
-      </c>
-      <c r="DY1" s="3" t="n">
-        <v>43145</v>
-      </c>
-      <c r="DZ1" s="3" t="n">
-        <v>43146</v>
-      </c>
-      <c r="EA1" s="3" t="n">
-        <v>43147</v>
-      </c>
-      <c r="EB1" s="3" t="n">
-        <v>43148</v>
-      </c>
-      <c r="EC1" s="3" t="n">
-        <v>43149</v>
-      </c>
-      <c r="ED1" s="3" t="n">
-        <v>43150</v>
-      </c>
-      <c r="EE1" s="3" t="n">
-        <v>43151</v>
-      </c>
-      <c r="EF1" s="3" t="n">
-        <v>43152</v>
-      </c>
-      <c r="EG1" s="3" t="n">
-        <v>43153</v>
-      </c>
-      <c r="EH1" s="3" t="n">
-        <v>43154</v>
-      </c>
-      <c r="EI1" s="3" t="n">
-        <v>43155</v>
-      </c>
-      <c r="EJ1" s="3" t="n">
-        <v>43156</v>
-      </c>
-      <c r="EK1" s="3" t="n">
-        <v>43157</v>
-      </c>
-      <c r="EL1" s="3" t="n">
-        <v>43158</v>
-      </c>
-      <c r="EM1" s="3" t="n">
-        <v>43159</v>
-      </c>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+      <c r="DO1" s="3"/>
+      <c r="DP1" s="3"/>
+      <c r="DQ1" s="3"/>
+      <c r="DR1" s="3"/>
+      <c r="DS1" s="3"/>
+      <c r="DT1" s="3"/>
+      <c r="DU1" s="3"/>
+      <c r="DV1" s="3"/>
+      <c r="DW1" s="3"/>
+      <c r="DX1" s="3"/>
+      <c r="DY1" s="3"/>
+      <c r="DZ1" s="3"/>
+      <c r="EA1" s="3"/>
+      <c r="EB1" s="3"/>
+      <c r="EC1" s="3"/>
+      <c r="ED1" s="3"/>
+      <c r="EE1" s="3"/>
+      <c r="EF1" s="3"/>
+      <c r="EG1" s="3"/>
+      <c r="EH1" s="3"/>
+      <c r="EI1" s="3"/>
+      <c r="EJ1" s="3"/>
+      <c r="EK1" s="3"/>
+      <c r="EL1" s="3"/>
+      <c r="EM1" s="3"/>
       <c r="EN1" s="3"/>
-      <c r="EO1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="EP1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="EQ1" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="EO1" s="5"/>
+      <c r="EP1" s="5"/>
+      <c r="EQ1" s="5"/>
       <c r="ER1" s="5"/>
       <c r="ES1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="P2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="W2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AD2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="8"/>
       <c r="AG2" s="4"/>
@@ -7999,97 +7930,97 @@
       <c r="AI2" s="4"/>
       <c r="AJ2" s="5"/>
       <c r="AN2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AP2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AS2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AX2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AY2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AZ2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BD2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BE2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BF2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BG2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BK2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BL2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BM2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BK2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BN2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BR2" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="BQ2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="BR2" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="BS2" s="5"/>
       <c r="BT2" s="5"/>
@@ -8097,97 +8028,97 @@
       <c r="BV2" s="6"/>
       <c r="BW2" s="7"/>
       <c r="BZ2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="CA2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="CB2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="CE2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="CC2" s="8" t="s">
+      <c r="CF2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="CD2" s="8" t="s">
+      <c r="CG2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="CE2" s="8" t="s">
+      <c r="CH2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="CF2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="CG2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="CH2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="CI2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="CJ2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="CK2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="CL2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="CJ2" s="8" t="s">
+      <c r="CM2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="CK2" s="8" t="s">
+      <c r="CN2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="CL2" s="8" t="s">
+      <c r="CO2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="CM2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="CN2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="CO2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="CP2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="CR2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="CS2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="CQ2" s="8" t="s">
+      <c r="CT2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="CR2" s="8" t="s">
+      <c r="CU2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="CS2" s="8" t="s">
+      <c r="CV2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="CT2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="CU2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="CV2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="CW2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="CX2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="CY2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="CZ2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="CX2" s="8" t="s">
+      <c r="DA2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="CY2" s="8" t="s">
+      <c r="DB2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="CZ2" s="8" t="s">
+      <c r="DC2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="DA2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="DB2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="DC2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="DD2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="DE2" s="5"/>
       <c r="DF2" s="5"/>
@@ -8195,89 +8126,35 @@
       <c r="DH2" s="5"/>
       <c r="DI2" s="7"/>
       <c r="DL2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="DM2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="DN2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="DO2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="DP2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="DQ2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="DR2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="DT2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="DU2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="DV2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="DW2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="DX2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="DZ2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="EA2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="EB2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="EC2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="ED2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="EE2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="EF2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="EG2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="EH2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="EI2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="EJ2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="EK2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="EL2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="EM2" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="DM2" s="8"/>
+      <c r="DN2" s="8"/>
+      <c r="DO2" s="8"/>
+      <c r="DP2" s="8"/>
+      <c r="DQ2" s="8"/>
+      <c r="DR2" s="8"/>
+      <c r="DS2" s="8"/>
+      <c r="DT2" s="8"/>
+      <c r="DU2" s="8"/>
+      <c r="DV2" s="8"/>
+      <c r="DW2" s="8"/>
+      <c r="DX2" s="8"/>
+      <c r="DY2" s="8"/>
+      <c r="DZ2" s="8"/>
+      <c r="EA2" s="8"/>
+      <c r="EB2" s="8"/>
+      <c r="EC2" s="8"/>
+      <c r="ED2" s="8"/>
+      <c r="EE2" s="8"/>
+      <c r="EF2" s="8"/>
+      <c r="EG2" s="8"/>
+      <c r="EH2" s="8"/>
+      <c r="EI2" s="8"/>
+      <c r="EJ2" s="8"/>
+      <c r="EK2" s="8"/>
+      <c r="EL2" s="8"/>
+      <c r="EM2" s="8"/>
       <c r="EN2" s="8"/>
       <c r="EO2" s="5"/>
       <c r="EP2" s="5"/>
@@ -8285,9 +8162,9 @@
       <c r="ER2" s="5"/>
       <c r="ES2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>5505</v>
@@ -8657,7 +8534,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>1885</v>
@@ -9027,7 +8904,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>440</v>
@@ -9397,7 +9274,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>34</v>
@@ -9767,7 +9644,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="16" t="n">
         <f aca="false">B6/B5</f>
@@ -10230,7 +10107,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="20" t="n">
         <f aca="false">(B16+B27+B38+B40)/B3</f>
@@ -10693,7 +10570,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="20" t="n">
         <f aca="false">(B17+B28+B39*2+B42*2)/B3</f>
@@ -11156,7 +11033,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -11340,7 +11217,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -11524,7 +11401,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>31114</v>
@@ -11856,7 +11733,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -12146,7 +12023,7 @@
     </row>
     <row r="15" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -12292,7 +12169,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>63</v>
@@ -12662,7 +12539,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>146.25</v>
@@ -13032,7 +12909,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="36" t="n">
         <v>63</v>
@@ -13402,7 +13279,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="36" t="n">
         <v>146.25</v>
@@ -13772,7 +13649,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>0</v>
@@ -14142,7 +14019,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>0</v>
@@ -14512,7 +14389,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>0</v>
@@ -14882,7 +14759,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>0</v>
@@ -15252,7 +15129,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>0</v>
@@ -15622,7 +15499,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>0</v>
@@ -15992,7 +15869,7 @@
     </row>
     <row r="26" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -16138,7 +16015,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>0</v>
@@ -16508,7 +16385,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>0</v>
@@ -16878,7 +16755,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="36" t="n">
         <v>0</v>
@@ -17248,7 +17125,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="36" t="n">
         <v>0</v>
@@ -17618,7 +17495,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>0</v>
@@ -17988,7 +17865,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>0</v>
@@ -18358,7 +18235,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="10" t="n">
         <v>0</v>
@@ -18728,7 +18605,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="10" t="n">
         <v>0</v>
@@ -19098,7 +18975,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="10" t="n">
         <v>0</v>
@@ -19468,7 +19345,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="10" t="n">
         <v>0</v>
@@ -19838,7 +19715,7 @@
     </row>
     <row r="37" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -19984,7 +19861,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" s="10" t="n">
         <v>2</v>
@@ -20354,7 +20231,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>2</v>
@@ -20724,7 +20601,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="10" t="n">
         <v>53</v>
@@ -21094,7 +20971,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="10" t="n">
         <v>14</v>
@@ -21464,7 +21341,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42" s="10" t="n">
         <v>106.5</v>
@@ -21834,7 +21711,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -22124,7 +22001,7 @@
     </row>
     <row r="45" customFormat="false" ht="16.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
@@ -22270,7 +22147,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="10" t="n">
         <v>0</v>
@@ -22602,7 +22479,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="10" t="n">
         <v>0</v>
@@ -22934,7 +22811,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="10" t="n">
         <v>0</v>
@@ -23266,7 +23143,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="10" t="n">
         <v>0</v>
@@ -23598,7 +23475,7 @@
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="10" t="n">
         <v>0</v>
@@ -23930,7 +23807,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -24076,7 +23953,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="10" t="n">
         <v>0</v>
@@ -24408,7 +24285,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="10" t="n">
         <v>0</v>
@@ -24740,7 +24617,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" s="10" t="n">
         <v>0</v>
@@ -25072,7 +24949,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" s="10" t="n">
         <v>0</v>
@@ -25404,7 +25281,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" s="10" t="n">
         <v>0</v>
@@ -26076,7 +25953,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AO27" activeCellId="0" sqref="AO27"/>
+      <selection pane="topRight" activeCell="AO27" activeCellId="1" sqref="DM1:EX7 AO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26123,115 +26000,115 @@
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="94"/>
       <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="X1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AI1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26276,7 +26153,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="95" t="n">
         <v>1203.71428571429</v>
@@ -26392,7 +26269,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="95" t="n">
         <v>136.571428571429</v>
@@ -26508,7 +26385,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="95" t="n">
         <v>51.2857142857143</v>
@@ -26624,7 +26501,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="95" t="n">
         <v>1.42857142857143</v>
@@ -26740,7 +26617,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="96" t="n">
         <v>0.0278551532033426</v>
@@ -26856,7 +26733,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="97" t="n">
         <v>0.0124614289105151</v>
@@ -26972,7 +26849,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="97" t="n">
         <v>0.0182767624020888</v>
@@ -27088,7 +26965,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="97" t="n">
         <v>0.610729636230213</v>
@@ -27200,7 +27077,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>832.25</v>
@@ -27312,12 +27189,12 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>15</v>
@@ -27433,7 +27310,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>22</v>
@@ -27549,12 +27426,12 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -27670,7 +27547,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -27786,12 +27663,12 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -27907,7 +27784,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -28023,7 +27900,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -28139,7 +28016,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -28255,7 +28132,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -28431,7 +28308,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="1" sqref="DM1:EX7 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -28479,118 +28356,118 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="E1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AD1" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AF1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AG1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AH1" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AI1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AJ1" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AK1" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AL1" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -28612,7 +28489,7 @@
   <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="DM1:EX7 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -28662,124 +28539,124 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="E1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AD1" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AF1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AG1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AH1" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AI1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AJ1" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AK1" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AL1" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AM1" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AN1" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM1" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN1" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -28803,7 +28680,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="AT1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BS10" activeCellId="0" sqref="BS10"/>
+      <selection pane="topRight" activeCell="BS10" activeCellId="1" sqref="DM1:EX7 BS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28916,19 +28793,19 @@
         <v>42947</v>
       </c>
       <c r="AG1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="AN1" s="52" t="n">
         <v>42948</v>
@@ -29024,113 +28901,113 @@
         <v>42978</v>
       </c>
       <c r="BS1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="BW1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="T2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AA2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="6"/>
@@ -29138,97 +29015,97 @@
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
       <c r="AN2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AV2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="BA2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AZ2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BC2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BG2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BH2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BI2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BG2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BJ2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BN2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BP2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BN2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BQ2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BR2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BS2" s="4"/>
       <c r="BT2" s="6"/>
@@ -29238,7 +29115,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="53" t="n">
         <v>292</v>
@@ -29465,7 +29342,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="53" t="n">
         <v>214</v>
@@ -29692,7 +29569,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="53" t="n">
         <v>66</v>
@@ -29919,7 +29796,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="53" t="n">
         <v>1</v>
@@ -30146,7 +30023,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="57" t="n">
         <f aca="false">B6/B5</f>
@@ -30435,7 +30312,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="60" t="n">
         <f aca="false">(B16+B27+B38+B40)/B3</f>
@@ -30724,7 +30601,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="60" t="n">
         <f aca="false">(B17+B28+B39*2+B42*2)/B3</f>
@@ -31013,7 +30890,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -31116,7 +30993,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -31219,7 +31096,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="53" t="n">
         <v>1058</v>
@@ -31420,7 +31297,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
@@ -31572,7 +31449,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -31649,7 +31526,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="53" t="n">
         <v>2</v>
@@ -31876,7 +31753,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="53" t="n">
         <v>2</v>
@@ -32103,7 +31980,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="71" t="n">
         <v>2</v>
@@ -32330,7 +32207,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="71" t="n">
         <v>2</v>
@@ -32557,7 +32434,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="53" t="n">
         <v>0</v>
@@ -32784,7 +32661,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="53" t="n">
         <v>0</v>
@@ -33011,7 +32888,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="53" t="n">
         <v>0</v>
@@ -33238,7 +33115,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="53" t="n">
         <v>0</v>
@@ -33465,7 +33342,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="53" t="n">
         <v>0</v>
@@ -33692,7 +33569,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="53" t="n">
         <v>0</v>
@@ -33919,7 +33796,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
@@ -33996,7 +33873,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="53" t="n">
         <v>0</v>
@@ -34223,7 +34100,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="53" t="n">
         <v>0</v>
@@ -34450,7 +34327,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="71" t="n">
         <v>0</v>
@@ -34677,7 +34554,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="71" t="n">
         <v>0</v>
@@ -34904,7 +34781,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="53" t="n">
         <v>0</v>
@@ -35131,7 +35008,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="53" t="n">
         <v>0</v>
@@ -35358,7 +35235,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="53" t="n">
         <v>0</v>
@@ -35585,7 +35462,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="53" t="n">
         <v>0</v>
@@ -35812,7 +35689,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="53" t="n">
         <v>0</v>
@@ -36039,7 +35916,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="53" t="n">
         <v>0</v>
@@ -36266,7 +36143,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="68"/>
       <c r="C37" s="68"/>
@@ -36343,7 +36220,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B38" s="53" t="n">
         <v>0</v>
@@ -36570,7 +36447,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B39" s="53" t="n">
         <v>0</v>
@@ -36797,7 +36674,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="53" t="n">
         <v>0</v>
@@ -37024,7 +36901,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="53" t="n">
         <v>0</v>
@@ -37251,7 +37128,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B42" s="53" t="n">
         <v>0</v>
@@ -37478,7 +37355,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
@@ -37636,7 +37513,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B45" s="68"/>
       <c r="C45" s="68"/>
@@ -37716,7 +37593,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="53" t="n">
         <v>0</v>
@@ -37920,7 +37797,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="53" t="n">
         <v>0</v>
@@ -38124,7 +38001,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="53" t="n">
         <v>0</v>
@@ -38328,7 +38205,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="53" t="n">
         <v>0</v>
@@ -38532,7 +38409,7 @@
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="53" t="n">
         <v>0</v>
@@ -38736,7 +38613,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
@@ -38816,7 +38693,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="53" t="n">
         <v>0</v>
@@ -39020,7 +38897,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="53" t="n">
         <v>0</v>
@@ -39224,7 +39101,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" s="53" t="n">
         <v>0</v>
@@ -39428,7 +39305,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" s="53" t="n">
         <v>0</v>
@@ -39632,7 +39509,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" s="53" t="n">
         <v>0</v>
@@ -39911,7 +39788,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="79" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -39950,7 +39827,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="BD1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BY3" activeCellId="0" sqref="BY3"/>
+      <selection pane="topRight" activeCell="BY3" activeCellId="1" sqref="DM1:EX7 BY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40063,19 +39940,19 @@
         <v>42947</v>
       </c>
       <c r="AG1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="AN1" s="52" t="n">
         <v>42948</v>
@@ -40171,113 +40048,113 @@
         <v>42978</v>
       </c>
       <c r="BS1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="BW1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="T2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AA2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="6"/>
@@ -40285,97 +40162,97 @@
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
       <c r="AN2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AV2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="BA2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AZ2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BC2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BG2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BH2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BI2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BG2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BJ2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BN2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BP2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BN2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BQ2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BR2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BS2" s="4"/>
       <c r="BT2" s="6"/>
@@ -40385,7 +40262,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="53" t="n">
         <v>1242</v>
@@ -40612,7 +40489,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="53" t="n">
         <v>480</v>
@@ -40839,7 +40716,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="53" t="n">
         <v>108</v>
@@ -41066,7 +40943,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="53" t="n">
         <v>9</v>
@@ -41293,7 +41170,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="57" t="n">
         <f aca="false">B6/B5</f>
@@ -41582,7 +41459,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="60" t="n">
         <f aca="false">(B16+B27+B38+B40)/B3</f>
@@ -41871,7 +41748,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="60" t="n">
         <f aca="false">(B17+B28+B39*2+B42*2)/B3</f>
@@ -42160,7 +42037,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -42263,7 +42140,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -42366,7 +42243,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="53" t="n">
         <v>3111</v>
@@ -42567,7 +42444,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
@@ -42719,7 +42596,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -42796,7 +42673,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="53" t="n">
         <v>18</v>
@@ -43023,7 +42900,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="53" t="n">
         <v>27.75</v>
@@ -43250,7 +43127,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="71" t="n">
         <v>18</v>
@@ -43477,7 +43354,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="71" t="n">
         <v>27.75</v>
@@ -43704,7 +43581,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="53" t="n">
         <v>0</v>
@@ -43931,7 +43808,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="53" t="n">
         <v>0</v>
@@ -44158,7 +44035,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="53" t="n">
         <v>0</v>
@@ -44385,7 +44262,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="53" t="n">
         <v>0</v>
@@ -44612,7 +44489,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="53" t="n">
         <v>0</v>
@@ -44839,7 +44716,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="53" t="n">
         <v>0</v>
@@ -45066,7 +44943,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
@@ -45143,7 +45020,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="53" t="n">
         <v>0</v>
@@ -45370,7 +45247,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="53" t="n">
         <v>0</v>
@@ -45597,7 +45474,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="71" t="n">
         <v>0</v>
@@ -45824,7 +45701,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="71" t="n">
         <v>0</v>
@@ -46051,7 +45928,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="53" t="n">
         <v>0</v>
@@ -46278,7 +46155,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="53" t="n">
         <v>0</v>
@@ -46505,7 +46382,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="53" t="n">
         <v>0</v>
@@ -46732,7 +46609,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="53" t="n">
         <v>0</v>
@@ -46959,7 +46836,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="53" t="n">
         <v>0</v>
@@ -47186,7 +47063,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="53" t="n">
         <v>0</v>
@@ -47413,7 +47290,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="68"/>
       <c r="C37" s="68"/>
@@ -47490,7 +47367,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B38" s="53" t="n">
         <v>5</v>
@@ -47717,7 +47594,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B39" s="53" t="n">
         <v>9.5</v>
@@ -47944,7 +47821,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="53" t="n">
         <v>9</v>
@@ -48171,7 +48048,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="53" t="n">
         <v>0</v>
@@ -48398,7 +48275,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B42" s="53" t="n">
         <v>0</v>
@@ -48625,7 +48502,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
@@ -48783,7 +48660,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B45" s="68"/>
       <c r="C45" s="68"/>
@@ -48863,7 +48740,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="53" t="n">
         <v>0</v>
@@ -49067,7 +48944,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="53" t="n">
         <v>0</v>
@@ -49271,7 +49148,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="53" t="n">
         <v>0</v>
@@ -49475,7 +49352,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="53" t="n">
         <v>0</v>
@@ -49679,7 +49556,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="53" t="n">
         <v>0</v>
@@ -49883,7 +49760,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
@@ -49963,7 +49840,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="53" t="n">
         <v>0</v>
@@ -50167,7 +50044,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="53" t="n">
         <v>0</v>
@@ -50371,7 +50248,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" s="53" t="n">
         <v>0</v>
@@ -50575,7 +50452,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" s="53" t="n">
         <v>0</v>
@@ -50779,7 +50656,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" s="53" t="n">
         <v>0</v>
@@ -51092,7 +50969,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="AT1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BR11" activeCellId="0" sqref="BR11"/>
+      <selection pane="topRight" activeCell="BR11" activeCellId="1" sqref="DM1:EX7 BR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51205,19 +51082,19 @@
         <v>42947</v>
       </c>
       <c r="AG1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="AN1" s="52" t="n">
         <v>42948</v>
@@ -51313,113 +51190,113 @@
         <v>42978</v>
       </c>
       <c r="BS1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="BW1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="T2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AA2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="6"/>
@@ -51427,97 +51304,97 @@
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
       <c r="AN2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AV2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="BA2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AZ2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BC2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BG2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BH2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BI2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BG2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BJ2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BN2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BP2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BN2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BQ2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BR2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BS2" s="4"/>
       <c r="BT2" s="6"/>
@@ -51527,7 +51404,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="53" t="n">
         <v>1436</v>
@@ -51754,7 +51631,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="53" t="n">
         <v>1</v>
@@ -51981,7 +51858,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="53" t="n">
         <v>0</v>
@@ -52208,7 +52085,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="53" t="n">
         <v>0</v>
@@ -52435,7 +52312,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="57" t="e">
         <f aca="false">B6/B5</f>
@@ -52724,7 +52601,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="60" t="n">
         <f aca="false">(B16+B27+B38+B40)/B3</f>
@@ -53013,7 +52890,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="60" t="n">
         <f aca="false">(B17+B28+B39*2+B42*2)/B3</f>
@@ -53302,7 +53179,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -53405,7 +53282,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -53508,7 +53385,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="53" t="n">
         <v>4841</v>
@@ -53709,7 +53586,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
@@ -53861,7 +53738,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -53938,7 +53815,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="53" t="n">
         <v>0</v>
@@ -54165,7 +54042,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="53" t="n">
         <v>0</v>
@@ -54392,7 +54269,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="71" t="n">
         <v>0</v>
@@ -54619,7 +54496,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="71" t="n">
         <v>0</v>
@@ -54846,7 +54723,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="53" t="n">
         <v>0</v>
@@ -55073,7 +54950,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="53" t="n">
         <v>0</v>
@@ -55300,7 +55177,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="53" t="n">
         <v>0</v>
@@ -55527,7 +55404,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="53" t="n">
         <v>0</v>
@@ -55754,7 +55631,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="53" t="n">
         <v>0</v>
@@ -55981,7 +55858,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="53" t="n">
         <v>0</v>
@@ -56208,7 +56085,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
@@ -56285,7 +56162,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="53" t="n">
         <v>0</v>
@@ -56512,7 +56389,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="53" t="n">
         <v>0</v>
@@ -56739,7 +56616,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="71" t="n">
         <v>0</v>
@@ -56966,7 +56843,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="71" t="n">
         <v>0</v>
@@ -57193,7 +57070,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="53" t="n">
         <v>0</v>
@@ -57420,7 +57297,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="53" t="n">
         <v>0</v>
@@ -57647,7 +57524,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="53" t="n">
         <v>0</v>
@@ -57874,7 +57751,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="53" t="n">
         <v>0</v>
@@ -58101,7 +57978,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="53" t="n">
         <v>0</v>
@@ -58328,7 +58205,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="53" t="n">
         <v>0</v>
@@ -58555,7 +58432,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="68"/>
       <c r="C37" s="68"/>
@@ -58632,7 +58509,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B38" s="53" t="n">
         <v>0</v>
@@ -58859,7 +58736,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B39" s="53" t="n">
         <v>0</v>
@@ -59086,7 +58963,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="53" t="n">
         <v>0</v>
@@ -59313,7 +59190,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="53" t="n">
         <v>0</v>
@@ -59540,7 +59417,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B42" s="53" t="n">
         <v>0</v>
@@ -59767,7 +59644,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
@@ -59925,7 +59802,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B45" s="68"/>
       <c r="C45" s="68"/>
@@ -60005,7 +59882,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="53" t="n">
         <v>0</v>
@@ -60209,7 +60086,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="53" t="n">
         <v>0</v>
@@ -60413,7 +60290,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="53" t="n">
         <v>0</v>
@@ -60617,7 +60494,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="53" t="n">
         <v>0</v>
@@ -60821,7 +60698,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="53" t="n">
         <v>0</v>
@@ -61025,7 +60902,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
@@ -61105,7 +60982,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="53" t="n">
         <v>0</v>
@@ -61309,7 +61186,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="53" t="n">
         <v>0</v>
@@ -61513,7 +61390,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" s="53" t="n">
         <v>0</v>
@@ -61717,7 +61594,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" s="53" t="n">
         <v>0</v>
@@ -61921,7 +61798,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" s="53" t="n">
         <v>0</v>
@@ -62234,7 +62111,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="AU1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BX3" activeCellId="0" sqref="BX3"/>
+      <selection pane="topRight" activeCell="BX3" activeCellId="1" sqref="DM1:EX7 BX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -62347,19 +62224,19 @@
         <v>42947</v>
       </c>
       <c r="AG1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="AN1" s="52" t="n">
         <v>42948</v>
@@ -62455,113 +62332,113 @@
         <v>42978</v>
       </c>
       <c r="BS1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="BW1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="T2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AA2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="6"/>
@@ -62569,97 +62446,97 @@
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
       <c r="AN2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AV2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="BA2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AZ2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BC2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BG2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BH2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BI2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BG2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BJ2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BN2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BP2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BN2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BQ2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BR2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BS2" s="4"/>
       <c r="BT2" s="6"/>
@@ -62669,7 +62546,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="53" t="n">
         <v>470</v>
@@ -62896,7 +62773,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="53" t="n">
         <v>44</v>
@@ -63123,7 +63000,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="53" t="n">
         <v>2</v>
@@ -63350,7 +63227,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="53" t="n">
         <v>0</v>
@@ -63577,7 +63454,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="57" t="n">
         <f aca="false">B6/B5</f>
@@ -63866,7 +63743,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="60" t="n">
         <f aca="false">(B16+B27+B38+B40)/B3</f>
@@ -64155,7 +64032,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="60" t="n">
         <f aca="false">(B17+B28+B39*2+B42*2)/B3</f>
@@ -64444,7 +64321,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -64547,7 +64424,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -64650,7 +64527,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="53" t="n">
         <v>1250</v>
@@ -64851,7 +64728,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
@@ -65003,7 +64880,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -65080,7 +64957,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="53" t="n">
         <v>0</v>
@@ -65307,7 +65184,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="53" t="n">
         <v>0</v>
@@ -65534,7 +65411,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="71" t="n">
         <v>0</v>
@@ -65761,7 +65638,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="71" t="n">
         <v>0</v>
@@ -65988,7 +65865,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="53" t="n">
         <v>0</v>
@@ -66215,7 +66092,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="53" t="n">
         <v>0</v>
@@ -66442,7 +66319,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="53" t="n">
         <v>0</v>
@@ -66669,7 +66546,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="53" t="n">
         <v>0</v>
@@ -66896,7 +66773,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="53" t="n">
         <v>0</v>
@@ -67123,7 +67000,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="53" t="n">
         <v>0</v>
@@ -67350,7 +67227,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
@@ -67427,7 +67304,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="53" t="n">
         <v>0</v>
@@ -67654,7 +67531,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="53" t="n">
         <v>0</v>
@@ -67881,7 +67758,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="71" t="n">
         <v>0</v>
@@ -68108,7 +67985,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="71" t="n">
         <v>0</v>
@@ -68335,7 +68212,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="53" t="n">
         <v>0</v>
@@ -68562,7 +68439,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="53" t="n">
         <v>0</v>
@@ -68789,7 +68666,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="53" t="n">
         <v>0</v>
@@ -69016,7 +68893,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="53" t="n">
         <v>0</v>
@@ -69243,7 +69120,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="53" t="n">
         <v>0</v>
@@ -69470,7 +69347,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="53" t="n">
         <v>0</v>
@@ -69697,7 +69574,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="68"/>
       <c r="C37" s="68"/>
@@ -69774,7 +69651,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B38" s="53" t="n">
         <v>0</v>
@@ -70001,7 +69878,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B39" s="53" t="n">
         <v>0</v>
@@ -70228,7 +70105,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="53" t="n">
         <v>0</v>
@@ -70455,7 +70332,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="53" t="n">
         <v>0</v>
@@ -70682,7 +70559,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B42" s="53" t="n">
         <v>0</v>
@@ -70909,7 +70786,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
@@ -71061,7 +70938,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B45" s="68"/>
       <c r="C45" s="68"/>
@@ -71138,7 +71015,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="53" t="n">
         <v>0</v>
@@ -71339,7 +71216,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="53" t="n">
         <v>0</v>
@@ -71540,7 +71417,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="53" t="n">
         <v>0</v>
@@ -71741,7 +71618,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="53" t="n">
         <v>0</v>
@@ -71942,7 +71819,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="53" t="n">
         <v>0</v>
@@ -72143,7 +72020,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
@@ -72220,7 +72097,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="53" t="n">
         <v>0</v>
@@ -72421,7 +72298,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="53" t="n">
         <v>0</v>
@@ -72622,7 +72499,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" s="53" t="n">
         <v>0</v>
@@ -72823,7 +72700,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" s="53" t="n">
         <v>0</v>
@@ -73024,7 +72901,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" s="53" t="n">
         <v>0</v>
@@ -73334,7 +73211,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="39" ySplit="0" topLeftCell="AV1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BY4" activeCellId="0" sqref="BY4"/>
+      <selection pane="topRight" activeCell="BY4" activeCellId="1" sqref="DM1:EX7 BY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -73444,113 +73321,113 @@
         <v>42978</v>
       </c>
       <c r="BS1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="BW1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="AN2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AV2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="BA2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AZ2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BC2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BG2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BH2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BI2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BG2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BJ2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BN2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BP2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BN2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BQ2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BR2" s="81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BS2" s="4"/>
       <c r="BT2" s="6"/>
@@ -73560,7 +73437,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AN3" s="53"/>
       <c r="AO3" s="53"/>
@@ -73611,7 +73488,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AN4" s="53"/>
       <c r="AO4" s="53"/>
@@ -73662,7 +73539,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN5" s="53"/>
       <c r="AO5" s="53"/>
@@ -73713,7 +73590,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AN6" s="53"/>
       <c r="AO6" s="53"/>
@@ -73764,7 +73641,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AN7" s="57"/>
       <c r="AO7" s="57"/>
@@ -73820,7 +73697,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN8" s="60"/>
       <c r="AO8" s="60"/>
@@ -73876,7 +73753,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN9" s="60"/>
       <c r="AO9" s="60"/>
@@ -73932,7 +73809,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AN10" s="53"/>
       <c r="AO10" s="53"/>
@@ -73973,7 +73850,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN11" s="53"/>
       <c r="AO11" s="53"/>
@@ -74014,7 +73891,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AN12" s="53"/>
       <c r="AO12" s="53"/>
@@ -74065,7 +73942,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AN13" s="65"/>
       <c r="AO13" s="65"/>
@@ -74145,7 +74022,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN15" s="68"/>
       <c r="AO15" s="68"/>
@@ -74186,7 +74063,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AN16" s="53"/>
       <c r="AO16" s="53"/>
@@ -74237,7 +74114,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AN17" s="53"/>
       <c r="AO17" s="53"/>
@@ -74288,7 +74165,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AN18" s="71"/>
       <c r="AO18" s="71"/>
@@ -74339,7 +74216,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AN19" s="71"/>
       <c r="AO19" s="71"/>
@@ -74390,7 +74267,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN20" s="53"/>
       <c r="AO20" s="53"/>
@@ -74441,7 +74318,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AN21" s="53"/>
       <c r="AO21" s="53"/>
@@ -74492,7 +74369,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AN22" s="53"/>
       <c r="AO22" s="53"/>
@@ -74543,7 +74420,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AN23" s="53"/>
       <c r="AO23" s="53"/>
@@ -74594,7 +74471,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AN24" s="53"/>
       <c r="AO24" s="53"/>
@@ -74645,7 +74522,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AN25" s="53"/>
       <c r="AO25" s="53"/>
@@ -74696,7 +74573,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AN26" s="68"/>
       <c r="AO26" s="68"/>
@@ -74737,7 +74614,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AN27" s="53"/>
       <c r="AO27" s="53"/>
@@ -74788,7 +74665,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AN28" s="53"/>
       <c r="AO28" s="53"/>
@@ -74839,7 +74716,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AN29" s="71"/>
       <c r="AO29" s="71"/>
@@ -74890,7 +74767,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AN30" s="71"/>
       <c r="AO30" s="71"/>
@@ -74941,7 +74818,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN31" s="53"/>
       <c r="AO31" s="53"/>
@@ -74992,7 +74869,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AN32" s="53"/>
       <c r="AO32" s="53"/>
@@ -75043,7 +74920,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AN33" s="53"/>
       <c r="AO33" s="53"/>
@@ -75094,7 +74971,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AN34" s="53"/>
       <c r="AO34" s="53"/>
@@ -75145,7 +75022,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AN35" s="53"/>
       <c r="AO35" s="53"/>
@@ -75196,7 +75073,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AN36" s="53"/>
       <c r="AO36" s="53"/>
@@ -75247,7 +75124,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AN37" s="68"/>
       <c r="AO37" s="68"/>
@@ -75288,7 +75165,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AN38" s="53"/>
       <c r="AO38" s="53"/>
@@ -75339,7 +75216,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AN39" s="53"/>
       <c r="AO39" s="53"/>
@@ -75390,7 +75267,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AN40" s="53"/>
       <c r="AO40" s="53"/>
@@ -75441,7 +75318,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AN41" s="53"/>
       <c r="AO41" s="53"/>
@@ -75492,7 +75369,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AN42" s="53"/>
       <c r="AO42" s="53"/>
@@ -75543,7 +75420,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AN43" s="65"/>
       <c r="AO43" s="65"/>
@@ -75623,7 +75500,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN45" s="68"/>
       <c r="AO45" s="68"/>
@@ -75664,7 +75541,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AN46" s="53"/>
       <c r="AO46" s="53"/>
@@ -75715,7 +75592,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AN47" s="53"/>
       <c r="AO47" s="53"/>
@@ -75766,7 +75643,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AN48" s="53"/>
       <c r="AO48" s="53"/>
@@ -75817,7 +75694,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AN49" s="53"/>
       <c r="AO49" s="53"/>
@@ -75868,7 +75745,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AN50" s="53"/>
       <c r="AO50" s="53"/>
@@ -75919,7 +75796,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AN51" s="68"/>
       <c r="AO51" s="68"/>
@@ -75960,7 +75837,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AN52" s="53"/>
       <c r="AO52" s="53"/>
@@ -76011,7 +75888,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AN53" s="53"/>
       <c r="AO53" s="53"/>
@@ -76062,7 +75939,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AN54" s="53"/>
       <c r="AO54" s="53"/>
@@ -76113,7 +75990,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AN55" s="53"/>
       <c r="AO55" s="53"/>
@@ -76164,7 +76041,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AN56" s="53"/>
       <c r="AO56" s="53"/>
@@ -76283,7 +76160,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="39" ySplit="0" topLeftCell="AN1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BR1" activeCellId="0" sqref="BR1"/>
+      <selection pane="topRight" activeCell="BR1" activeCellId="1" sqref="DM1:EX7 BR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -76397,113 +76274,113 @@
         <v>42978</v>
       </c>
       <c r="BS1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="BW1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44"/>
       <c r="AN2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="AV2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="BA2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AZ2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BC2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BG2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BH2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BI2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BG2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BJ2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BN2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BP2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BN2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="BQ2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BR2" s="81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BS2" s="4"/>
       <c r="BT2" s="6"/>
@@ -76513,7 +76390,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="83" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AN3" s="53"/>
       <c r="AO3" s="53"/>
@@ -76564,7 +76441,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AN4" s="53"/>
       <c r="AO4" s="53"/>
@@ -76615,7 +76492,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="85" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN5" s="53"/>
       <c r="AO5" s="53"/>
@@ -76666,7 +76543,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="85" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AN6" s="53"/>
       <c r="AO6" s="53"/>
@@ -76717,7 +76594,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AN7" s="57"/>
       <c r="AO7" s="57"/>
@@ -76788,7 +76665,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="86" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN8" s="60"/>
       <c r="AO8" s="60"/>
@@ -76859,7 +76736,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN9" s="60"/>
       <c r="AO9" s="60"/>
@@ -76930,7 +76807,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="88" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AN10" s="53"/>
       <c r="AO10" s="53"/>
@@ -76971,7 +76848,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN11" s="53"/>
       <c r="AO11" s="53"/>
@@ -77012,7 +76889,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AN12" s="53"/>
       <c r="AO12" s="53"/>
@@ -77063,7 +76940,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AN13" s="65"/>
       <c r="AO13" s="65"/>
@@ -77143,7 +77020,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN15" s="68"/>
       <c r="AO15" s="68"/>
@@ -77184,7 +77061,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AN16" s="53"/>
       <c r="AO16" s="53"/>
@@ -77235,7 +77112,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AN17" s="53"/>
       <c r="AO17" s="53"/>
@@ -77286,7 +77163,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AN18" s="71"/>
       <c r="AO18" s="71"/>
@@ -77337,7 +77214,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AN19" s="71"/>
       <c r="AO19" s="71"/>
@@ -77388,7 +77265,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN20" s="53"/>
       <c r="AO20" s="53"/>
@@ -77439,7 +77316,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AN21" s="53"/>
       <c r="AO21" s="53"/>
@@ -77490,7 +77367,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AN22" s="53"/>
       <c r="AO22" s="53"/>
@@ -77541,7 +77418,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="89" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AN23" s="53"/>
       <c r="AO23" s="53"/>
@@ -77592,7 +77469,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AN24" s="53"/>
       <c r="AO24" s="53"/>
@@ -77643,7 +77520,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AN25" s="53"/>
       <c r="AO25" s="53"/>
@@ -77694,7 +77571,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AN26" s="68"/>
       <c r="AO26" s="68"/>
@@ -77735,7 +77612,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AN27" s="53"/>
       <c r="AO27" s="53"/>
@@ -77786,7 +77663,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AN28" s="53"/>
       <c r="AO28" s="53"/>
@@ -77837,7 +77714,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AN29" s="71"/>
       <c r="AO29" s="71"/>
@@ -77888,7 +77765,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AN30" s="71"/>
       <c r="AO30" s="71"/>
@@ -77939,7 +77816,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="91" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN31" s="53"/>
       <c r="AO31" s="53"/>
@@ -77990,7 +77867,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AN32" s="53"/>
       <c r="AO32" s="53"/>
@@ -78041,7 +77918,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AN33" s="53"/>
       <c r="AO33" s="53"/>
@@ -78092,7 +77969,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="89" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AN34" s="53"/>
       <c r="AO34" s="53"/>
@@ -78143,7 +78020,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AN35" s="53"/>
       <c r="AO35" s="53"/>
@@ -78194,7 +78071,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AN36" s="53"/>
       <c r="AO36" s="53"/>
@@ -78245,7 +78122,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AN37" s="68"/>
       <c r="AO37" s="68"/>
@@ -78286,7 +78163,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="91" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AN38" s="53"/>
       <c r="AO38" s="53"/>
@@ -78337,7 +78214,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="89" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AN39" s="53"/>
       <c r="AO39" s="53"/>
@@ -78388,7 +78265,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="89" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AN40" s="53"/>
       <c r="AO40" s="53"/>
@@ -78439,7 +78316,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="89" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AN41" s="53"/>
       <c r="AO41" s="53"/>
@@ -78490,7 +78367,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AN42" s="53"/>
       <c r="AO42" s="53"/>
@@ -78541,7 +78418,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AN43" s="65"/>
       <c r="AO43" s="65"/>
@@ -78621,7 +78498,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN45" s="68"/>
       <c r="AO45" s="68"/>
@@ -78662,7 +78539,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="91" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AN46" s="53"/>
       <c r="AO46" s="53"/>
@@ -78713,7 +78590,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="89" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AN47" s="53"/>
       <c r="AO47" s="53"/>
@@ -78764,7 +78641,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="89" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AN48" s="53"/>
       <c r="AO48" s="53"/>
@@ -78815,7 +78692,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="89" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AN49" s="53"/>
       <c r="AO49" s="53"/>
@@ -78866,7 +78743,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AN50" s="53"/>
       <c r="AO50" s="53"/>
@@ -78917,7 +78794,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AN51" s="68"/>
       <c r="AO51" s="68"/>
@@ -78958,7 +78835,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="91" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AN52" s="53"/>
       <c r="AO52" s="53"/>
@@ -79009,7 +78886,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="89" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AN53" s="53"/>
       <c r="AO53" s="53"/>
@@ -79060,7 +78937,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="89" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AN54" s="53"/>
       <c r="AO54" s="53"/>
@@ -79111,7 +78988,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="89" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AN55" s="53"/>
       <c r="AO55" s="53"/>
@@ -79162,7 +79039,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="92" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AN56" s="53"/>
       <c r="AO56" s="53"/>
